--- a/biology/Médecine/Roger_Misès/Roger_Misès.xlsx
+++ b/biology/Médecine/Roger_Misès/Roger_Misès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Roger_Mis%C3%A8s</t>
+          <t>Roger_Misès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roger Misès, né le 13 avril 1924 à Paris et mort le 23 juillet 2012 dans la même ville[1], est psychanalyste et professeur de pédopsychiatrie, résistant pendant la Seconde Guerre mondiale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roger Misès, né le 13 avril 1924 à Paris et mort le 23 juillet 2012 dans la même ville, est psychanalyste et professeur de pédopsychiatrie, résistant pendant la Seconde Guerre mondiale.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Roger_Mis%C3%A8s</t>
+          <t>Roger_Misès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence sa carrière dans les services du Professeur Georges Heuyer avec notamment Serge Lebovici, René Diatkine, Michel Soulé, etc..
-Psychanalyste membre de la Société psychanalytique de Paris[2], il est promoteur d'une psychopathologie de la diversité, contre l'approche étiologique « chosifiante »[3].
-Dès 1957, il est nommé médecin, Chef de service à la Fondation Vallée, puis en assume la direction[4].
+Psychanalyste membre de la Société psychanalytique de Paris, il est promoteur d'une psychopathologie de la diversité, contre l'approche étiologique « chosifiante ».
+Dès 1957, il est nommé médecin, Chef de service à la Fondation Vallée, puis en assume la direction.
 Il développe une « nouvelle clinique psychiatrique » basée sur le travail d’équipe pluridisciplinaire avec éducateurs, psychologues, pédagogues, aux côtés de psychiatres et d’infirmiers psychiatriques en s’appuyant sur tous les apports théoriques de la psychanalyse mais aussi d'autres courants. Il a ainsi rédigé la circulaire du 14 mars 1972, puis une autre en 1992, qui - pour la première - créait la psychiatrie de secteur infanto-juvénile sur demande du Ministère. 321 équipes de soignants en ont découlé, couvrant la totalité du territoire français.
-Il est connu pour avoir rédigé la classification française des maladies mentales de l’enfant et de l’adolescent[5],[6].
-Il s'est insurgé contre les directives 2012 de la HAS  sur l'autisme[7].
+Il est connu pour avoir rédigé la classification française des maladies mentales de l’enfant et de l’adolescent,.
+Il s'est insurgé contre les directives 2012 de la HAS  sur l'autisme.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Roger_Mis%C3%A8s</t>
+          <t>Roger_Misès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Œuvre écrit</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Cure en institution, Éditeur : EME Éditions Sociales Françaises (ESF), Collection : La vie de l'enfant, 1993,  (ISBN 2710102811)
 Les pathologies limites de l'enfance, PUF, Coll. Le fil rouge, 1979, 176 p.  (ISBN 978-2-13-043280-7)</t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Roger_Mis%C3%A8s</t>
+          <t>Roger_Misès</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Croix du combattant volontaire de la Résistance[8].
-Officier de la Légion d’honneur[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Croix du combattant volontaire de la Résistance.
+Officier de la Légion d’honneur.</t>
         </is>
       </c>
     </row>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Roger_Mis%C3%A8s</t>
+          <t>Roger_Misès</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Célébration</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Un centre de psychiatrie infantile à Angers porte son nom[9]. Ainsi qu'un hôpital de jour pour enfants à Chaumont (Haute-Marne).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un centre de psychiatrie infantile à Angers porte son nom. Ainsi qu'un hôpital de jour pour enfants à Chaumont (Haute-Marne).
 Une unité (hôpital de jour) porte son nom au sein de la Fondation Vallée.
 Une unité de soins de psychiatrie infanto-juvénile (hôpital de jour) porte son nom au sein du centre hospitalier Théophile Roussel à Montesson (Yvelines).</t>
         </is>
